--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2317234.424846417</v>
+        <v>2312930.08503655</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -664,61 +664,61 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
-        <v>79.51149230610422</v>
+        <v>225.1346772411287</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>251.1481678782825</v>
+      </c>
+      <c r="V2" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="G2" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="H2" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>152.7676931992223</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>127.4695742187183</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>59.72994935072553</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -819,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>216.9755163892658</v>
+        <v>71.86891629791572</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X5" t="n">
-        <v>155.5625557110022</v>
+        <v>219.4450108596165</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>100.6266475515485</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>116.0139745654302</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>44.04367517370083</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>224.0675393506163</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>377.0015878139238</v>
       </c>
       <c r="H8" t="n">
-        <v>21.11483944004733</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465048</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1220,7 +1220,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>155.8686312908668</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115243</v>
+        <v>20.24979976115236</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901739</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092543744329</v>
+        <v>224.0328052099043</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.09080169284021</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>195.7667673447328</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>66.12869588327256</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>111.5512144998722</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>177.696569780335</v>
       </c>
       <c r="U16" t="n">
-        <v>170.722427606551</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>192.3244002084041</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2247,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8253826161909023</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>193.9962538432431</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E28" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>161.7400393421043</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881284</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>126.926382450742</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3435,13 +3435,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>31.26260713376568</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>26.1362719570585</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>62.63443603047438</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>94.64226186542875</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>163.949385892745</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4030,10 +4030,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>18.7084378797726</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>900.5447187946889</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="C2" t="n">
-        <v>900.5447187946889</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="D2" t="n">
-        <v>900.5447187946889</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="E2" t="n">
-        <v>820.2300801016544</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>553.8524235344764</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672984</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
         <v>21.09711040012049</v>
@@ -4333,19 +4333,19 @@
         <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946889</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946889</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="W2" t="n">
-        <v>900.5447187946889</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="X2" t="n">
-        <v>900.5447187946889</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="Y2" t="n">
-        <v>900.5447187946889</v>
+        <v>534.7928453799753</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>255.8834218536975</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C3" t="n">
-        <v>81.43039257257053</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>81.43039257257053</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>81.43039257257053</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>81.43039257257053</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>81.43039257257053</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
         <v>21.09711040012049</v>
@@ -4409,52 +4409,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004801</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>839.7105578442523</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>839.7105578442523</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>839.7105578442523</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="W3" t="n">
-        <v>839.7105578442523</v>
+        <v>565.4660550460803</v>
       </c>
       <c r="X3" t="n">
-        <v>631.8590576387195</v>
+        <v>357.6145548405475</v>
       </c>
       <c r="Y3" t="n">
-        <v>424.0987588737656</v>
+        <v>149.8542560755936</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.2577368622518</v>
+        <v>325.1351228789782</v>
       </c>
       <c r="C4" t="n">
-        <v>36.32155393434483</v>
+        <v>325.1351228789782</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32155393434483</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434483</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434483</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434483</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
@@ -4497,13 +4497,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4524,16 +4524,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="W4" t="n">
-        <v>835.6883317340389</v>
+        <v>727.5761668527481</v>
       </c>
       <c r="X4" t="n">
-        <v>607.6987808360216</v>
+        <v>727.5761668527481</v>
       </c>
       <c r="Y4" t="n">
-        <v>386.9062016924914</v>
+        <v>506.783587709218</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>416.9099126163966</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="C5" t="n">
-        <v>416.9099126163966</v>
+        <v>300.438579740743</v>
       </c>
       <c r="D5" t="n">
-        <v>416.9099126163966</v>
+        <v>300.438579740743</v>
       </c>
       <c r="E5" t="n">
-        <v>416.9099126163966</v>
+        <v>300.438579740743</v>
       </c>
       <c r="F5" t="n">
-        <v>150.5322560492186</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4597,22 +4597,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>840.4214638411526</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="X5" t="n">
-        <v>683.2875691835745</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="Y5" t="n">
-        <v>683.2875691835745</v>
+        <v>566.8162363079209</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>443.72777598926</v>
+        <v>620.9078372423282</v>
       </c>
       <c r="C6" t="n">
-        <v>269.274746708133</v>
+        <v>446.4548079612013</v>
       </c>
       <c r="D6" t="n">
-        <v>167.6316683732355</v>
+        <v>297.52039829995</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>138.2829432944945</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742819</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>819.7034117742819</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>819.7034117742819</v>
+        <v>828.6681360072821</v>
       </c>
       <c r="Y6" t="n">
-        <v>611.943113009328</v>
+        <v>620.9078372423282</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159.7059716361716</v>
+        <v>378.8398477105897</v>
       </c>
       <c r="C7" t="n">
-        <v>159.7059716361716</v>
+        <v>378.8398477105897</v>
       </c>
       <c r="D7" t="n">
-        <v>159.7059716361716</v>
+        <v>228.7232082982539</v>
       </c>
       <c r="E7" t="n">
-        <v>159.7059716361716</v>
+        <v>80.81011471586081</v>
       </c>
       <c r="F7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4758,19 +4758,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>828.5246721771194</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>828.5246721771194</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>562.1470156099415</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="X7" t="n">
-        <v>562.1470156099415</v>
+        <v>560.4883125408294</v>
       </c>
       <c r="Y7" t="n">
-        <v>341.3544364664114</v>
+        <v>560.4883125408294</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1334.624407727731</v>
+        <v>1874.309276588296</v>
       </c>
       <c r="C8" t="n">
-        <v>965.661890787319</v>
+        <v>1505.346759647885</v>
       </c>
       <c r="D8" t="n">
-        <v>965.661890787319</v>
+        <v>1147.081061041134</v>
       </c>
       <c r="E8" t="n">
-        <v>965.661890787319</v>
+        <v>1147.081061041134</v>
       </c>
       <c r="F8" t="n">
-        <v>554.6759859977115</v>
+        <v>736.0951562515268</v>
       </c>
       <c r="G8" t="n">
-        <v>138.9697639893786</v>
+        <v>355.2854715909976</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428662</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685558</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467167</v>
+        <v>187.3702251467171</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607413</v>
+        <v>442.1757437607423</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045913</v>
+        <v>795.1862829045926</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1219.647962995227</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209582</v>
+        <v>1655.591685209585</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940593</v>
+        <v>2053.905718940596</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550194</v>
+        <v>2359.356530550199</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.56462266116</v>
+        <v>2540.564622661165</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342779</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342779</v>
+        <v>2435.830015762137</v>
       </c>
       <c r="T8" t="n">
-        <v>2351.810676439052</v>
+        <v>2227.07793185841</v>
       </c>
       <c r="U8" t="n">
-        <v>2098.229497964622</v>
+        <v>2227.07793185841</v>
       </c>
       <c r="V8" t="n">
-        <v>2098.229497964622</v>
+        <v>2227.07793185841</v>
       </c>
       <c r="W8" t="n">
-        <v>2098.229497964622</v>
+        <v>1874.309276588296</v>
       </c>
       <c r="X8" t="n">
-        <v>1724.763739703542</v>
+        <v>1874.309276588296</v>
       </c>
       <c r="Y8" t="n">
-        <v>1334.624407727731</v>
+        <v>1874.309276588296</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010741</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199471</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586958</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
         <v>448.6792199487294</v>
@@ -4877,58 +4877,58 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993884</v>
+        <v>71.66559839993889</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685558</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507233</v>
+        <v>113.4887579637189</v>
       </c>
       <c r="K9" t="n">
-        <v>684.7364639442751</v>
+        <v>559.9063389572709</v>
       </c>
       <c r="L9" t="n">
-        <v>1091.982190524995</v>
+        <v>854.4423223907523</v>
       </c>
       <c r="M9" t="n">
-        <v>1455.048658999296</v>
+        <v>1217.508790865054</v>
       </c>
       <c r="N9" t="n">
-        <v>1842.133061471864</v>
+        <v>1604.593193337623</v>
       </c>
       <c r="O9" t="n">
-        <v>2174.019871459253</v>
+        <v>1936.480003325013</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888877</v>
+        <v>2445.34536178904</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442622</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342779</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251695</v>
+        <v>2424.8262802517</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685344</v>
+        <v>2230.816477685349</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751573</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.57421351983</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791629</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586096</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821142</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.054243487711</v>
+        <v>518.1771711294914</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1180605598041</v>
+        <v>349.2409882015845</v>
       </c>
       <c r="D10" t="n">
-        <v>514.0014211474684</v>
+        <v>199.1243487892488</v>
       </c>
       <c r="E10" t="n">
-        <v>366.0883275650752</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="F10" t="n">
-        <v>219.1983800671649</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685558</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685558</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685558</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380131</v>
+        <v>76.63468308380155</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676565</v>
+        <v>248.2500215676569</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368914</v>
+        <v>523.3850043368922</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904027</v>
+        <v>823.8653899904037</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616498</v>
+        <v>1581.4903876165</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412618</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="S10" t="n">
-        <v>1336.515802634452</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="T10" t="n">
-        <v>1113.534501108858</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="U10" t="n">
-        <v>1113.534501108858</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="V10" t="n">
-        <v>1113.534501108858</v>
+        <v>1438.024936038239</v>
       </c>
       <c r="W10" t="n">
-        <v>1113.534501108858</v>
+        <v>1148.607766001279</v>
       </c>
       <c r="X10" t="n">
-        <v>1113.534501108858</v>
+        <v>920.6182151032613</v>
       </c>
       <c r="Y10" t="n">
-        <v>892.7419219653274</v>
+        <v>699.8256359597311</v>
       </c>
     </row>
     <row r="11">
@@ -5020,34 +5020,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5059,31 +5059,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V13" t="n">
-        <v>1621.58919134635</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W13" t="n">
-        <v>1332.172021309389</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1332.172021309389</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5278,10 +5278,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>697.5276345711974</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711974</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U16" t="n">
-        <v>1872.059887685832</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V16" t="n">
-        <v>1617.375399479945</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.958229442984</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.968678544967</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>879.1760994014371</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="17">
@@ -5497,43 +5497,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5603,13 +5603,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>614.6217844681063</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>614.6217844681063</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1017.062828441876</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>796.270249298346</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5737,25 +5737,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474262</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5971,16 +5971,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5989,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3482.038612289356</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6126,10 +6126,10 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
         <v>484.8112968429803</v>
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,28 +6472,28 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.58852738579</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2231.58852738579</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2257.062161108197</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>2854.440648734749</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.3929232910542</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.041388121294</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6837,19 +6837,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2420.562808876161</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2420.562808876161</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>2131.487582220359</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>1876.803094014472</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.385923977512</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.396373079494</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7177,34 +7177,34 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>633.4413279836774</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2316.650272731174</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2097.048807754114</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1807.973581098312</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1553.289092892425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1263.871922855465</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1035.882371957447</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>815.0897928139171</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>2808.971891347485</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3406.350378974037</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>4033.948342528643</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>784.5811134804959</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C43" t="n">
-        <v>615.644930552589</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>189.4149073564858</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7605,16 +7605,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1522.780413559004</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1233.363243522043</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X43" t="n">
-        <v>1005.373692624026</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y43" t="n">
-        <v>784.5811134804959</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="44">
@@ -7642,55 +7642,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7785,25 +7785,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>175.9033664000583</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127223</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>113.8482254012511</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>264.4747475094974</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348506</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>186.0089474405555</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>114.158440889165</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>39.70888054695322</v>
       </c>
       <c r="U16" t="n">
-        <v>115.4620467826931</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>33.3852551806331</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24177,7 +24177,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.71340154579403</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>117.6820817884491</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E28" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>5.506781756523566</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>38.5977558415268</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>154.8900140445861</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>118.3918499711702</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>70.88187642684009</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>88.18825743108303</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26043,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351662</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982122</v>
@@ -26325,25 +26325,25 @@
         <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="G2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675047</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.9497675047</v>
+      </c>
+      <c r="K2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="H2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675045</v>
-      </c>
       <c r="L2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="M2" t="n">
         <v>605359.9497675042</v>
@@ -26352,10 +26352,10 @@
         <v>605359.9497675041</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.007658078</v>
+        <v>390680.0076580793</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606941</v>
+        <v>507909.2320606931</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101747</v>
+        <v>95270.23779101772</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954693</v>
+        <v>132717.975695469</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>247648.5670423891</v>
       </c>
       <c r="D4" t="n">
-        <v>135650.8557716748</v>
+        <v>135650.8557716744</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
@@ -26450,16 +26450,16 @@
         <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744322</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567889</v>
+        <v>92902.867575679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-375003.0234396359</v>
+        <v>-375003.023439636</v>
       </c>
       <c r="C6" t="n">
-        <v>305084.9571515571</v>
+        <v>305084.9571515573</v>
       </c>
       <c r="D6" t="n">
-        <v>-3452.403607219545</v>
+        <v>-3452.403607220534</v>
       </c>
       <c r="E6" t="n">
-        <v>-12399.06850884105</v>
+        <v>-12746.44776319697</v>
       </c>
       <c r="F6" t="n">
-        <v>495510.1635518531</v>
+        <v>495162.7842974959</v>
       </c>
       <c r="G6" t="n">
-        <v>495510.163551853</v>
+        <v>495162.7842974958</v>
       </c>
       <c r="H6" t="n">
-        <v>495510.163551853</v>
+        <v>495162.7842974965</v>
       </c>
       <c r="I6" t="n">
-        <v>495510.163551853</v>
+        <v>495162.7842974959</v>
       </c>
       <c r="J6" t="n">
-        <v>426511.0091327389</v>
+        <v>426163.6298783823</v>
       </c>
       <c r="K6" t="n">
-        <v>495510.1635518532</v>
+        <v>495162.784297496</v>
       </c>
       <c r="L6" t="n">
-        <v>400239.9257608354</v>
+        <v>399892.5465064786</v>
       </c>
       <c r="M6" t="n">
-        <v>362792.1878563835</v>
+        <v>362444.8086020269</v>
       </c>
       <c r="N6" t="n">
-        <v>495510.1635518527</v>
+        <v>495162.7842974958</v>
       </c>
       <c r="O6" t="n">
-        <v>495510.1635518531</v>
+        <v>495162.784297496</v>
       </c>
       <c r="P6" t="n">
-        <v>495510.1635518527</v>
+        <v>495162.7842974958</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627821</v>
+        <v>933.7024595627831</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856948</v>
+        <v>640.1406900856962</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933039</v>
+        <v>319.6474457933048</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788916</v>
+        <v>434.2730407788908</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841887</v>
+        <v>376.4268100841899</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139536</v>
+        <v>532.5675980139524</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.426810084189</v>
+        <v>376.4268100841899</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139536</v>
+        <v>532.5675980139522</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841887</v>
+        <v>376.4268100841899</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139536</v>
+        <v>532.5675980139524</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
-        <v>302.4188777661576</v>
+        <v>156.7956928311331</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>39.06360943114899</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27475,10 +27475,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>39.74937092048423</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27539,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27554,13 +27554,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>69.54748194732522</v>
+        <v>214.6540820386753</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X5" t="n">
-        <v>214.1685449674668</v>
+        <v>150.2860898188525</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>46.81841801309029</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>29.05523782795363</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>101.3773728492304</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27794,7 +27794,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,19 +27830,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>62.1910911520612</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>34.54757197432565</v>
       </c>
       <c r="H8" t="n">
-        <v>279.9186347802532</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465031</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27940,7 +27940,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.776449164534171</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.776449164528657</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.7411784890971</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
         <v>104.8162497430995</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>56.37087597909525</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885553</v>
+        <v>3.753577726885557</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546669</v>
+        <v>38.44132789546673</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157554</v>
+        <v>144.7098053157556</v>
       </c>
       <c r="J8" t="n">
-        <v>318.580217597253</v>
+        <v>318.5802175972534</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763186</v>
+        <v>477.4691627763191</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354924</v>
+        <v>592.3427171354931</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359934</v>
+        <v>659.0954050359941</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525071</v>
+        <v>669.7602577525078</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307888</v>
+        <v>632.4356192307895</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983016</v>
+        <v>539.7691690983022</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542126</v>
+        <v>405.344166754213</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864748</v>
+        <v>235.7856768864751</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140464</v>
+        <v>85.53465245140472</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944152</v>
+        <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508442</v>
+        <v>0.3002862181508446</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436927</v>
+        <v>2.00834113943693</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035138</v>
+        <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026265</v>
+        <v>69.14683309026272</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079424</v>
+        <v>189.7441951079426</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502165</v>
+        <v>324.3030514502169</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571277</v>
+        <v>436.0654741571282</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617162</v>
+        <v>508.8678404617168</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152209</v>
+        <v>522.3360580152215</v>
       </c>
       <c r="O9" t="n">
-        <v>477.835446451908</v>
+        <v>477.8354464519085</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947586</v>
+        <v>383.505072494759</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463699</v>
+        <v>256.3629847463702</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366396</v>
+        <v>37.304055813664</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133929</v>
+        <v>8.095024154133938</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419032</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752558</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840002</v>
+        <v>14.96985254840004</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415875</v>
+        <v>50.63422518415881</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954058</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772517</v>
+        <v>195.6183185772519</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490121</v>
+        <v>250.3240987490124</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023123</v>
+        <v>263.9316641023125</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462348</v>
+        <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046252</v>
+        <v>237.9869810046255</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708729</v>
+        <v>203.6389757708731</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307408</v>
+        <v>75.70643221307417</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658775</v>
+        <v>29.34274778658778</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942745</v>
+        <v>7.194100917942753</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650326</v>
+        <v>0.09183958618650336</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,19 +32797,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338203</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>570.6116741576911</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877686</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705667</v>
+        <v>137.5343130705671</v>
       </c>
       <c r="K8" t="n">
-        <v>257.379311731338</v>
+        <v>257.3793117313386</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655052</v>
+        <v>356.5763021655059</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087207</v>
+        <v>428.7491718087214</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559162</v>
+        <v>440.3471941559168</v>
       </c>
       <c r="O8" t="n">
-        <v>402.337407809102</v>
+        <v>402.3374078091027</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430321</v>
+        <v>308.5361733430327</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797631</v>
+        <v>183.0384768797635</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234272</v>
+        <v>20.20013907234298</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816845</v>
+        <v>62.90656844127591</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884361</v>
+        <v>450.9268494884365</v>
       </c>
       <c r="L9" t="n">
-        <v>411.3593197785046</v>
+        <v>297.511094377254</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396979</v>
+        <v>366.7338065396984</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318877</v>
+        <v>390.9943459318882</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074635</v>
+        <v>335.239202007464</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804284</v>
+        <v>514.0054125899262</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603484</v>
+        <v>116.3812106603487</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783564</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873305</v>
+        <v>25.68023017873318</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513688</v>
+        <v>173.348826751369</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093282</v>
+        <v>277.9141240093285</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641528</v>
+        <v>303.5155410641531</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254633</v>
+        <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186649</v>
+        <v>262.5721089186652</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357664</v>
+        <v>200.9175350357666</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8270281422857</v>
+        <v>54.82702814228587</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>22.33282074962425</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,19 +36445,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394616</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>432.057294377817</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2312930.08503655</v>
+        <v>2314690.615339334</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9479321.81918302</v>
+        <v>9479321.819183018</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>219.4450108596164</v>
       </c>
       <c r="D2" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
-        <v>225.1346772411287</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.4695742187183</v>
+        <v>109.3170492634406</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>135.5806565852696</v>
       </c>
       <c r="W4" t="n">
-        <v>71.86891629791572</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015062</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015062</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="X5" t="n">
-        <v>219.4450108596165</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -986,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>116.0139745654302</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1056,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>44.04367517370083</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015062</v>
+        <v>216.975516389266</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>153.9197970719177</v>
       </c>
       <c r="G8" t="n">
-        <v>377.0015878139238</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
         <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465039</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>92.83909691614507</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115236</v>
+        <v>20.24979976115239</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>132.6026661256429</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052099043</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1299,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>101.7997617497188</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>195.7667673447328</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174103</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>111.5512144998722</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206811</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>99.97427419833819</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>177.696569780335</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712593</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135544</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>193.9962538432431</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>21.85677025083604</v>
       </c>
     </row>
     <row r="29">
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>125.4250331806694</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881284</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695889</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174106</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,10 +3435,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>31.26260713376568</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>45.89043756183483</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>159.213275280683</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>94.64226186542875</v>
+        <v>51.35059460820201</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4030,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>534.7928453799753</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C2" t="n">
-        <v>534.7928453799753</v>
+        <v>833.1938928750989</v>
       </c>
       <c r="D2" t="n">
-        <v>268.4151888127974</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="F2" t="n">
         <v>34.06092317356495</v>
@@ -4333,19 +4333,19 @@
         <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4363,19 +4363,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>534.7928453799753</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>534.7928453799753</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>534.7928453799753</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>534.7928453799753</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="3">
@@ -4412,49 +4412,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>819.7034117742819</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W3" t="n">
-        <v>565.4660550460803</v>
+        <v>547.1301712528705</v>
       </c>
       <c r="X3" t="n">
-        <v>357.6145548405475</v>
+        <v>339.2786710473376</v>
       </c>
       <c r="Y3" t="n">
-        <v>149.8542560755936</v>
+        <v>131.5183722823837</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.1351228789782</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C4" t="n">
-        <v>325.1351228789782</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
         <v>21.09711040012049</v>
@@ -4497,13 +4497,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4524,16 +4524,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>800.1710318001377</v>
+        <v>917.9053618390856</v>
       </c>
       <c r="W4" t="n">
-        <v>727.5761668527481</v>
+        <v>651.5277052719076</v>
       </c>
       <c r="X4" t="n">
-        <v>727.5761668527481</v>
+        <v>423.5381543738903</v>
       </c>
       <c r="Y4" t="n">
-        <v>506.783587709218</v>
+        <v>202.7455752303602</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>566.8162363079209</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="C5" t="n">
-        <v>300.438579740743</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D5" t="n">
-        <v>300.438579740743</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>300.438579740743</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917582</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4606,13 +4606,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388467</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="X5" t="n">
-        <v>566.8162363079209</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="Y5" t="n">
-        <v>566.8162363079209</v>
+        <v>840.1393936243022</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>620.9078372423282</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>446.4548079612013</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>297.52039829995</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>138.2829432944945</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004802</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699344</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>529.474696326755</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560898</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4688,10 +4688,10 @@
         <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>828.6681360072821</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>620.9078372423282</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>378.8398477105897</v>
+        <v>205.2577368622518</v>
       </c>
       <c r="C7" t="n">
-        <v>378.8398477105897</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="D7" t="n">
-        <v>228.7232082982539</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="E7" t="n">
-        <v>80.81011471586081</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4764,13 +4764,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>788.4778634388467</v>
+        <v>835.6883317340389</v>
       </c>
       <c r="X7" t="n">
-        <v>560.4883125408294</v>
+        <v>607.6987808360216</v>
       </c>
       <c r="Y7" t="n">
-        <v>560.4883125408294</v>
+        <v>386.9062016924914</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1874.309276588296</v>
+        <v>1361.859141172639</v>
       </c>
       <c r="C8" t="n">
-        <v>1505.346759647885</v>
+        <v>992.8966242322274</v>
       </c>
       <c r="D8" t="n">
-        <v>1147.081061041134</v>
+        <v>992.8966242322274</v>
       </c>
       <c r="E8" t="n">
-        <v>1147.081061041134</v>
+        <v>992.8966242322274</v>
       </c>
       <c r="F8" t="n">
-        <v>736.0951562515268</v>
+        <v>837.4220817353408</v>
       </c>
       <c r="G8" t="n">
-        <v>355.2854715909976</v>
+        <v>421.715859727008</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2112552068557</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685566</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467171</v>
+        <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607423</v>
+        <v>442.1757437607425</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045926</v>
+        <v>795.1862829045931</v>
       </c>
       <c r="M8" t="n">
         <v>1219.647962995227</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209585</v>
+        <v>1655.591685209584</v>
       </c>
       <c r="O8" t="n">
         <v>2053.905718940596</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550199</v>
+        <v>2359.356530550198</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661165</v>
+        <v>2540.564622661163</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342785</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762137</v>
+        <v>2435.830015762136</v>
       </c>
       <c r="T8" t="n">
-        <v>2227.07793185841</v>
+        <v>2435.830015762136</v>
       </c>
       <c r="U8" t="n">
-        <v>2227.07793185841</v>
+        <v>2435.830015762136</v>
       </c>
       <c r="V8" t="n">
-        <v>2227.07793185841</v>
+        <v>2104.767128418565</v>
       </c>
       <c r="W8" t="n">
-        <v>1874.309276588296</v>
+        <v>1751.998473148451</v>
       </c>
       <c r="X8" t="n">
-        <v>1874.309276588296</v>
+        <v>1751.998473148451</v>
       </c>
       <c r="Y8" t="n">
-        <v>1874.309276588296</v>
+        <v>1361.859141172639</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>931.3041138965633</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>756.8510846154363</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>607.9166749541851</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>448.6792199487295</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446619756144</v>
@@ -4880,46 +4880,46 @@
         <v>71.66559839993889</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685566</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637189</v>
+        <v>113.4887579637187</v>
       </c>
       <c r="K9" t="n">
-        <v>559.9063389572709</v>
+        <v>559.9063389572707</v>
       </c>
       <c r="L9" t="n">
-        <v>854.4423223907523</v>
+        <v>854.4423223907519</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865054</v>
+        <v>1217.508790865053</v>
       </c>
       <c r="N9" t="n">
-        <v>1604.593193337623</v>
+        <v>1604.593193337622</v>
       </c>
       <c r="O9" t="n">
-        <v>1936.480003325013</v>
+        <v>1936.480003325011</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.34536178904</v>
+        <v>2421.05522988888</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342785</v>
+        <v>2536.272628442625</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342785</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.8262802517</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685349</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1769.36860661532</v>
       </c>
       <c r="W9" t="n">
         <v>1515.131249887118</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.1771711294914</v>
+        <v>936.7139597121446</v>
       </c>
       <c r="C10" t="n">
-        <v>349.2409882015845</v>
+        <v>767.7777767842377</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1243487892488</v>
+        <v>617.661137371902</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2112552068557</v>
+        <v>514.8330952004688</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2112552068557</v>
+        <v>367.9431477025585</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2112552068557</v>
+        <v>199.9560228422492</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685566</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685566</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380155</v>
+        <v>76.63468308380146</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676569</v>
+        <v>248.2500215676567</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368922</v>
+        <v>523.3850043368918</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904037</v>
+        <v>823.8653899904033</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101612</v>
       </c>
       <c r="O10" t="n">
         <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.4903876165</v>
+        <v>1581.490387616499</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="V10" t="n">
-        <v>1438.024936038239</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="W10" t="n">
-        <v>1148.607766001279</v>
+        <v>1346.351975440402</v>
       </c>
       <c r="X10" t="n">
-        <v>920.6182151032613</v>
+        <v>1118.362424542384</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.8256359597311</v>
+        <v>1118.362424542384</v>
       </c>
     </row>
     <row r="11">
@@ -5020,73 +5020,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612122999</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5193,52 +5193,52 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924459</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718572</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
         <v>1501.108204237296</v>
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,64 +5266,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5342,37 +5342,37 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
         <v>402.7245934908939</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1198.22892174168</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5989,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459582</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180513</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761979</v>
+        <v>961.2628027535235</v>
       </c>
     </row>
     <row r="29">
@@ -6454,7 +6454,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>302.5953191078052</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6925,16 +6925,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,22 +6964,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492574</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.25260147478</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612122999</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615996</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819168</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695811</v>
+        <v>658.7722159733504</v>
       </c>
       <c r="E37" t="n">
-        <v>516.389687887188</v>
+        <v>510.8591223909573</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>363.9691748930469</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7259,13 +7259,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7411,10 +7411,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.2707707770319</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="C43" t="n">
-        <v>634.334587849125</v>
+        <v>814.4041655335318</v>
       </c>
       <c r="D43" t="n">
-        <v>484.2179484367892</v>
+        <v>664.287526121196</v>
       </c>
       <c r="E43" t="n">
-        <v>336.3048548543961</v>
+        <v>516.3744325388029</v>
       </c>
       <c r="F43" t="n">
-        <v>189.4149073564858</v>
+        <v>369.4844850408925</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.9192356072716</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="44">
@@ -7645,10 +7645,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7669,7 +7669,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7730,16 +7730,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7785,19 +7785,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127223</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069063</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>264.4747475094974</v>
+        <v>239.9392607416612</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348506</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>45.37941682720972</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>114.158440889165</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823098</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>39.70888054695322</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038532</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>31.71340154579403</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>34.97276993489203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>196.7278831012588</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>40.09910511159944</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>119.633700730434</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>20.61870490125426</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>70.88187642684009</v>
+        <v>114.1735436840668</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>815075.8712351662</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982124</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982123</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982125</v>
-      </c>
       <c r="D2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="G2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="H2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="H2" t="n">
-        <v>605359.9497675047</v>
-      </c>
       <c r="I2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675047</v>
@@ -26343,19 +26343,19 @@
         <v>605359.9497675044</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="M2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675041</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580793</v>
+        <v>390680.0076580789</v>
       </c>
       <c r="E3" t="n">
         <v>507909.2320606931</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.662673557598692e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911414</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101772</v>
+        <v>95270.23779101763</v>
       </c>
       <c r="M3" t="n">
         <v>132717.975695469</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>247648.5670423891</v>
       </c>
       <c r="D4" t="n">
-        <v>135650.8557716744</v>
+        <v>135650.8557716745</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744439</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744406</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
@@ -26441,19 +26441,19 @@
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744304</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744439</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744297</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
@@ -26472,10 +26472,10 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.867575679</v>
+        <v>92902.86757567896</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-375003.023439636</v>
+        <v>-375003.0234396359</v>
       </c>
       <c r="C6" t="n">
-        <v>305084.9571515573</v>
+        <v>305084.957151557</v>
       </c>
       <c r="D6" t="n">
-        <v>-3452.403607220534</v>
+        <v>-3452.403607219967</v>
       </c>
       <c r="E6" t="n">
-        <v>-12746.44776319697</v>
+        <v>-12433.8064342756</v>
       </c>
       <c r="F6" t="n">
-        <v>495162.7842974959</v>
+        <v>495475.4256264169</v>
       </c>
       <c r="G6" t="n">
-        <v>495162.7842974958</v>
+        <v>495475.4256264175</v>
       </c>
       <c r="H6" t="n">
-        <v>495162.7842974965</v>
+        <v>495475.425626417</v>
       </c>
       <c r="I6" t="n">
-        <v>495162.7842974959</v>
+        <v>495475.4256264173</v>
       </c>
       <c r="J6" t="n">
-        <v>426163.6298783823</v>
+        <v>426476.2712073035</v>
       </c>
       <c r="K6" t="n">
-        <v>495162.784297496</v>
+        <v>495475.4256264173</v>
       </c>
       <c r="L6" t="n">
-        <v>399892.5465064786</v>
+        <v>400205.1878353995</v>
       </c>
       <c r="M6" t="n">
-        <v>362444.8086020269</v>
+        <v>362757.4499309481</v>
       </c>
       <c r="N6" t="n">
-        <v>495162.7842974958</v>
+        <v>495475.4256264172</v>
       </c>
       <c r="O6" t="n">
-        <v>495162.784297496</v>
+        <v>495475.4256264172</v>
       </c>
       <c r="P6" t="n">
-        <v>495162.7842974958</v>
+        <v>495475.4256264173</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26715,13 +26715,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627831</v>
+        <v>933.7024595627827</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856962</v>
+        <v>640.1406900856957</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933048</v>
+        <v>319.6474457933044</v>
       </c>
       <c r="E3" t="n">
         <v>434.2730407788908</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27017,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841899</v>
+        <v>376.4268100841896</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139524</v>
+        <v>532.5675980139522</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27041,7 +27041,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841899</v>
+        <v>376.4268100841896</v>
       </c>
       <c r="M4" t="n">
         <v>532.5675980139522</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27263,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841899</v>
+        <v>376.4268100841896</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139524</v>
+        <v>532.5675980139522</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>145.8278809113911</v>
       </c>
       <c r="D2" t="n">
         <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
-        <v>156.7956928311331</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27435,10 +27435,10 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.06360943114899</v>
+        <v>57.21613438642676</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27475,10 +27475,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27554,13 +27554,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>116.5569867385584</v>
       </c>
       <c r="W4" t="n">
-        <v>214.6540820386753</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,13 +27621,13 @@
         <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590681</v>
+        <v>136.6720035995079</v>
       </c>
       <c r="X5" t="n">
-        <v>150.2860898188525</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>29.05523782795363</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>101.3773728492304</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.8091183350848</v>
+        <v>69.547481947325</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>252.9562486697938</v>
       </c>
       <c r="G8" t="n">
-        <v>34.54757197432565</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465031</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
         <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.776449164530987</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164528657</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>44.63420089685037</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.8162497430995</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503845</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>56.37087597909525</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28089,22 +28089,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28146,13 +28146,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.751515490546872e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28326,19 +28326,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.850841319286826e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
     </row>
     <row r="15">
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29760,13 +29760,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,10 +29799,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,19 +30036,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>2.361452030088225e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30273,13 +30273,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885557</v>
+        <v>3.753577726885556</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546673</v>
+        <v>38.44132789546671</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157556</v>
+        <v>144.7098053157555</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972534</v>
+        <v>318.5802175972532</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763191</v>
+        <v>477.4691627763189</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354931</v>
+        <v>592.3427171354929</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359941</v>
+        <v>659.0954050359938</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525078</v>
+        <v>669.7602577525074</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307895</v>
+        <v>632.4356192307891</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983022</v>
+        <v>539.769169098302</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.344166754213</v>
+        <v>405.3441667542128</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864751</v>
+        <v>235.785676886475</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140472</v>
+        <v>85.53465245140468</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944154</v>
+        <v>16.43128649944153</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508446</v>
+        <v>0.3002862181508444</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00834113943693</v>
+        <v>2.008341139436929</v>
       </c>
       <c r="H9" t="n">
         <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026272</v>
+        <v>69.14683309026269</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079426</v>
+        <v>189.7441951079425</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502169</v>
+        <v>324.3030514502167</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571282</v>
+        <v>436.0654741571279</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617168</v>
+        <v>508.8678404617165</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152215</v>
+        <v>522.3360580152213</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519085</v>
+        <v>477.8354464519082</v>
       </c>
       <c r="P9" t="n">
-        <v>383.505072494759</v>
+        <v>383.5050724947588</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463702</v>
+        <v>256.3629847463701</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204789</v>
+        <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.304055813664</v>
+        <v>37.30405581366398</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133938</v>
+        <v>8.095024154133935</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321277065419033</v>
@@ -31676,46 +31676,46 @@
         <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840004</v>
+        <v>14.96985254840003</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415881</v>
+        <v>50.63422518415878</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954059</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772519</v>
+        <v>195.6183185772518</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490124</v>
+        <v>250.3240987490123</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023125</v>
+        <v>263.9316641023124</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462351</v>
+        <v>257.6559590462349</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046255</v>
+        <v>237.9869810046254</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708731</v>
+        <v>203.638975770873</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.9890713939802</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307417</v>
+        <v>75.70643221307412</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658778</v>
+        <v>29.34274778658776</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942753</v>
+        <v>7.194100917942749</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650336</v>
+        <v>0.09183958618650331</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593852</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>248.7449369209194</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33979,7 +33979,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34450,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34795,10 +34795,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877686</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.3216690912724</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705671</v>
+        <v>137.534313070567</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313386</v>
+        <v>257.3793117313384</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655059</v>
+        <v>356.5763021655056</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087214</v>
+        <v>428.7491718087211</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559168</v>
+        <v>440.3471941559165</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091027</v>
+        <v>402.3374078091024</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430327</v>
+        <v>308.5361733430324</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797635</v>
+        <v>183.0384768797634</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234298</v>
+        <v>20.20013907234286</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127591</v>
+        <v>62.90656844127582</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884365</v>
+        <v>450.9268494884363</v>
       </c>
       <c r="L9" t="n">
-        <v>297.511094377254</v>
+        <v>297.5110943772538</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396984</v>
+        <v>366.7338065396982</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318882</v>
+        <v>390.994345931888</v>
       </c>
       <c r="O9" t="n">
-        <v>335.239202007464</v>
+        <v>335.2392020074638</v>
       </c>
       <c r="P9" t="n">
-        <v>514.0054125899262</v>
+        <v>489.4699258220898</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603487</v>
+        <v>116.3812106603486</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783571</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873318</v>
+        <v>25.68023017873313</v>
       </c>
       <c r="K10" t="n">
-        <v>173.348826751369</v>
+        <v>173.3488267513689</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093285</v>
+        <v>277.9141240093284</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641531</v>
+        <v>303.515541064153</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254637</v>
+        <v>301.7881314254635</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186652</v>
+        <v>262.5721089186651</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357666</v>
+        <v>200.9175350357665</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228587</v>
+        <v>54.82702814228578</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396415</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>199.009739079511</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410452</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36852,10 +36852,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37791,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -38098,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
